--- a/water-fall/30_テスト/20_xxxシステム_ユーザーテスト仕様書_v1.0.xlsx
+++ b/water-fall/30_テスト/20_xxxシステム_ユーザーテスト仕様書_v1.0.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\system-dev-docs\water-fall\30_テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EE00C6-AADD-4263-8C3D-CFEB51445E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2791DF8-18FF-4DA8-A687-781F4E6039D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8274A964-4543-4038-856A-550D488370BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="ユーザーテスト一覧" sheetId="2" r:id="rId1"/>
+    <sheet name="改訂履歴" sheetId="3" r:id="rId1"/>
+    <sheet name="ユーザーテスト一覧" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
@@ -170,6 +171,60 @@
     <t>ユーザーテスト仕様書</t>
     <rPh sb="7" eb="10">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂日</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂者</t>
+    <rPh sb="0" eb="3">
+      <t>カイテイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂箇所</t>
+    <rPh sb="0" eb="4">
+      <t>カイテイカショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改訂内容</t>
+    <rPh sb="0" eb="4">
+      <t>カイテイナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +255,14 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -273,7 +336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +363,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,6 +617,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B930E4-83AE-49DD-B252-0F9C52BAE891}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="11">
+        <v>45473</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE550D8-1F93-446B-8EFA-AFDD1A126B3C}">
   <dimension ref="A1:O12"/>
   <sheetViews>
